--- a/app/JS-SPA-Self-Evaluation-Protocol.xlsx
+++ b/app/JS-SPA-Self-Evaluation-Protocol.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="91">
   <si>
     <t>Days Commit in GitHub</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>Functionality for sorting by category name and id.</t>
+  </si>
+  <si>
+    <t>Shows message for success and error, validation.</t>
   </si>
 </sst>
 </file>
@@ -481,10 +484,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -760,7 +763,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -770,15 +773,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12.5703125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="61.5703125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="67.5703125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="18" x14ac:dyDescent="0.35">
@@ -813,7 +816,7 @@
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
     </row>
-    <row r="5" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>53</v>
       </c>
@@ -835,11 +838,11 @@
       <c r="B7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -882,7 +885,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>3</v>
@@ -1344,7 +1347,7 @@
         <v>28</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
@@ -1400,7 +1403,7 @@
         <v>28</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
@@ -1437,7 +1440,7 @@
       </c>
       <c r="C51" s="11">
         <f>SUM(C6:C50)</f>
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D51" s="11">
         <v>430</v>
